--- a/benchmarks/parallel-multi-intersect/multi-base.xlsx
+++ b/benchmarks/parallel-multi-intersect/multi-base.xlsx
@@ -1480,7 +1480,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>1</c:v>
+            <c:v>1 thread</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
@@ -1506,6 +1506,273 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="86"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$87</c:f>
@@ -1784,7 +2051,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2</c:v>
+            <c:v>2 threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
@@ -1810,6 +2077,273 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="86"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$90:$B$175</c:f>
@@ -2088,7 +2622,7 @@
           <c:idx val="4"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>4</c:v>
+            <c:v>4 threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="15875" cap="rnd">
@@ -2114,6 +2648,273 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="86"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$178:$B$263</c:f>
@@ -2392,7 +3193,7 @@
           <c:idx val="5"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>8</c:v>
+            <c:v>8 threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
@@ -2418,6 +3219,273 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="86"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$266:$B$351</c:f>
@@ -2762,8 +3830,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Title</a:t>
+                  <a:t>intersect</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> number</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2839,6 +3912,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
         <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
@@ -2884,7 +3958,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Title</a:t>
+                  <a:t>key error</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5032,10 +6106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B353"/>
+  <dimension ref="A1:C353"/>
   <sheetViews>
-    <sheetView topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5043,7 +6117,7 @@
     <col min="1" max="1" width="167.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5051,7 +6125,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -5059,8 +6133,11 @@
         <f>_xlfn.NUMBERVALUE(MID(A2,FIND("is",$A2)+3,FIND(".",A2)-FIND("is",$A2)-3))</f>
         <v>7503463</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -5068,8 +6145,12 @@
         <f t="shared" ref="B3:B66" si="0">_xlfn.NUMBERVALUE(MID(A3,FIND("is",$A3)+3,FIND(".",A3)-FIND("is",$A3)-3))</f>
         <v>7503557</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f>C2+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -5077,8 +6158,12 @@
         <f t="shared" si="0"/>
         <v>7503531</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f t="shared" ref="C4:C67" si="1">C3+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -5086,8 +6171,12 @@
         <f t="shared" si="0"/>
         <v>7503562</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -5095,8 +6184,12 @@
         <f t="shared" si="0"/>
         <v>3690498</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -5104,8 +6197,12 @@
         <f t="shared" si="0"/>
         <v>7154176</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -5113,8 +6210,12 @@
         <f t="shared" si="0"/>
         <v>7466951</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -5122,8 +6223,12 @@
         <f t="shared" si="0"/>
         <v>7399689</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -5131,8 +6236,12 @@
         <f t="shared" si="0"/>
         <v>7503265</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -5140,8 +6249,12 @@
         <f t="shared" si="0"/>
         <v>7477976</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -5149,8 +6262,12 @@
         <f t="shared" si="0"/>
         <v>7502767</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -5158,8 +6275,12 @@
         <f t="shared" si="0"/>
         <v>7502572</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -5167,8 +6288,12 @@
         <f t="shared" si="0"/>
         <v>7484127</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -5176,8 +6301,12 @@
         <f t="shared" si="0"/>
         <v>7496995</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -5185,8 +6314,12 @@
         <f t="shared" si="0"/>
         <v>7453627</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -5194,8 +6327,12 @@
         <f t="shared" si="0"/>
         <v>7391328</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -5203,8 +6340,12 @@
         <f t="shared" si="0"/>
         <v>5503230</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -5212,8 +6353,12 @@
         <f t="shared" si="0"/>
         <v>7503556</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -5221,8 +6366,12 @@
         <f t="shared" si="0"/>
         <v>7503560</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -5230,8 +6379,12 @@
         <f t="shared" si="0"/>
         <v>7503559</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -5239,8 +6392,12 @@
         <f t="shared" si="0"/>
         <v>7503560</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -5248,8 +6405,12 @@
         <f t="shared" si="0"/>
         <v>7498472</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -5257,8 +6418,12 @@
         <f t="shared" si="0"/>
         <v>4235134</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -5266,8 +6431,12 @@
         <f t="shared" si="0"/>
         <v>7499367</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -5275,8 +6444,12 @@
         <f t="shared" si="0"/>
         <v>7502754</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -5284,8 +6457,12 @@
         <f t="shared" si="0"/>
         <v>7503172</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -5293,8 +6470,12 @@
         <f t="shared" si="0"/>
         <v>7503427</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -5302,8 +6483,12 @@
         <f t="shared" si="0"/>
         <v>7503480</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -5311,8 +6496,12 @@
         <f t="shared" si="0"/>
         <v>7503463</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -5320,8 +6509,12 @@
         <f t="shared" si="0"/>
         <v>7503309</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -5329,8 +6522,12 @@
         <f t="shared" si="0"/>
         <v>7503072</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -5338,8 +6535,12 @@
         <f t="shared" si="0"/>
         <v>7503267</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -5347,8 +6548,12 @@
         <f t="shared" si="0"/>
         <v>7503244</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -5356,8 +6561,12 @@
         <f t="shared" si="0"/>
         <v>7503252</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -5365,8 +6574,12 @@
         <f t="shared" si="0"/>
         <v>7503430</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -5374,8 +6587,12 @@
         <f t="shared" si="0"/>
         <v>7503530</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -5383,8 +6600,12 @@
         <f t="shared" si="0"/>
         <v>7503521</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -5392,8 +6613,12 @@
         <f t="shared" si="0"/>
         <v>7503515</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -5401,8 +6626,12 @@
         <f t="shared" si="0"/>
         <v>7503532</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -5410,8 +6639,12 @@
         <f t="shared" si="0"/>
         <v>7503498</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -5419,8 +6652,12 @@
         <f t="shared" si="0"/>
         <v>7503506</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -5428,8 +6665,12 @@
         <f t="shared" si="0"/>
         <v>7503560</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -5437,8 +6678,12 @@
         <f t="shared" si="0"/>
         <v>7496337</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -5446,8 +6691,12 @@
         <f t="shared" si="0"/>
         <v>7503061</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -5455,8 +6704,12 @@
         <f t="shared" si="0"/>
         <v>7503531</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -5464,8 +6717,12 @@
         <f t="shared" si="0"/>
         <v>556641</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -5473,8 +6730,12 @@
         <f t="shared" si="0"/>
         <v>4557854</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -5482,8 +6743,12 @@
         <f t="shared" si="0"/>
         <v>7433609</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -5491,8 +6756,12 @@
         <f t="shared" si="0"/>
         <v>7502572</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -5500,8 +6769,12 @@
         <f t="shared" si="0"/>
         <v>7475997</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -5509,8 +6782,12 @@
         <f t="shared" si="0"/>
         <v>7391184</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -5518,8 +6795,12 @@
         <f t="shared" si="0"/>
         <v>5338678</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -5527,8 +6808,12 @@
         <f t="shared" si="0"/>
         <v>7503551</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -5536,8 +6821,12 @@
         <f t="shared" si="0"/>
         <v>7490930</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -5545,8 +6834,12 @@
         <f t="shared" si="0"/>
         <v>3455300</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -5554,8 +6847,12 @@
         <f t="shared" si="0"/>
         <v>7502600</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -5563,8 +6860,12 @@
         <f t="shared" si="0"/>
         <v>7503410</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -5572,8 +6873,12 @@
         <f t="shared" si="0"/>
         <v>7503289</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -5581,8 +6886,12 @@
         <f t="shared" si="0"/>
         <v>7502877</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -5590,8 +6899,12 @@
         <f t="shared" si="0"/>
         <v>7502976</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -5599,8 +6912,12 @@
         <f t="shared" si="0"/>
         <v>7503418</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -5608,8 +6925,12 @@
         <f t="shared" si="0"/>
         <v>7503507</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -5617,8 +6938,12 @@
         <f t="shared" si="0"/>
         <v>7503486</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -5626,8 +6951,12 @@
         <f t="shared" si="0"/>
         <v>7503471</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>22</v>
       </c>
@@ -5635,2290 +6964,3278 @@
         <f t="shared" si="0"/>
         <v>7493009</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>23</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B130" si="1">_xlfn.NUMBERVALUE(MID(A67,FIND("is",$A67)+3,FIND(".",A67)-FIND("is",$A67)-3))</f>
+        <f t="shared" ref="B67:B130" si="2">_xlfn.NUMBERVALUE(MID(A67,FIND("is",$A67)+3,FIND(".",A67)-FIND("is",$A67)-3))</f>
         <v>7501143</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>24</v>
       </c>
       <c r="B68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15382</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <f t="shared" ref="C68:C131" si="3">C67+1</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>25</v>
       </c>
       <c r="B69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7251956</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>26</v>
       </c>
       <c r="B70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7369736</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>27</v>
       </c>
       <c r="B71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4969123</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>28</v>
       </c>
       <c r="B72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>363308</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>29</v>
       </c>
       <c r="B73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7502360</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>30</v>
       </c>
       <c r="B74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7502673</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>31</v>
       </c>
       <c r="B75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7502900</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>32</v>
       </c>
       <c r="B76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503444</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>33</v>
       </c>
       <c r="B77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7492887</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>34</v>
       </c>
       <c r="B78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2690</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>35</v>
       </c>
       <c r="B79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6928833</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>36</v>
       </c>
       <c r="B80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112690</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>37</v>
       </c>
       <c r="B81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7500468</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>38</v>
       </c>
       <c r="B82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7502703</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>39</v>
       </c>
       <c r="B83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1426</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>40</v>
       </c>
       <c r="B84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18704</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>41</v>
       </c>
       <c r="B85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7499210</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>42</v>
       </c>
       <c r="B86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>42</v>
       </c>
       <c r="B87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>49.692100986</v>
       </c>
       <c r="B88" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>49.692427786000003</v>
       </c>
       <c r="B89" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>45</v>
       </c>
       <c r="B90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503557</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>44</v>
       </c>
       <c r="B91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503463</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>46</v>
       </c>
       <c r="B92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503531</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>47</v>
       </c>
       <c r="B93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503562</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>49</v>
       </c>
       <c r="B94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7154176</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>50</v>
       </c>
       <c r="B95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7466951</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>48</v>
       </c>
       <c r="B96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3690498</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>51</v>
       </c>
       <c r="B97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7399689</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>52</v>
       </c>
       <c r="B98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503265</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>53</v>
       </c>
       <c r="B99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7477976</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>54</v>
       </c>
       <c r="B100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7502767</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>55</v>
       </c>
       <c r="B101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7502572</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>56</v>
       </c>
       <c r="B102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7484127</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>57</v>
       </c>
       <c r="B103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7496995</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>58</v>
       </c>
       <c r="B104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7453627</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>59</v>
       </c>
       <c r="B105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7391328</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>60</v>
       </c>
       <c r="B106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5503230</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>61</v>
       </c>
       <c r="B107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503556</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>63</v>
       </c>
       <c r="B108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503559</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>62</v>
       </c>
       <c r="B109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503560</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>64</v>
       </c>
       <c r="B110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503560</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>65</v>
       </c>
       <c r="B111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7498472</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>67</v>
       </c>
       <c r="B112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7499367</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>68</v>
       </c>
       <c r="B113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7502754</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>69</v>
       </c>
       <c r="B114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503172</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>70</v>
       </c>
       <c r="B115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503427</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>71</v>
       </c>
       <c r="B116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503480</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>72</v>
       </c>
       <c r="B117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503463</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>73</v>
       </c>
       <c r="B118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503309</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>74</v>
       </c>
       <c r="B119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503072</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>75</v>
       </c>
       <c r="B120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503267</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>76</v>
       </c>
       <c r="B121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503244</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>77</v>
       </c>
       <c r="B122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503252</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>78</v>
       </c>
       <c r="B123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503430</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>79</v>
       </c>
       <c r="B124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503530</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>80</v>
       </c>
       <c r="B125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503521</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>66</v>
       </c>
       <c r="B126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4235134</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>81</v>
       </c>
       <c r="B127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503515</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>82</v>
       </c>
       <c r="B128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503532</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>83</v>
       </c>
       <c r="B129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503498</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>85</v>
       </c>
       <c r="B130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7503560</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>84</v>
       </c>
       <c r="B131">
-        <f t="shared" ref="B131:B194" si="2">_xlfn.NUMBERVALUE(MID(A131,FIND("is",$A131)+3,FIND(".",A131)-FIND("is",$A131)-3))</f>
+        <f t="shared" ref="B131:B194" si="4">_xlfn.NUMBERVALUE(MID(A131,FIND("is",$A131)+3,FIND(".",A131)-FIND("is",$A131)-3))</f>
         <v>7503506</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>86</v>
       </c>
       <c r="B132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7496337</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <f t="shared" ref="C132:C195" si="5">C131+1</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1</v>
       </c>
       <c r="B133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7503061</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <f t="shared" si="5"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>2</v>
       </c>
       <c r="B134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7503531</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>3</v>
       </c>
       <c r="B135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>556641</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <f t="shared" si="5"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
       <c r="B136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7433609</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <f t="shared" si="5"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>4</v>
       </c>
       <c r="B137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4557854</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>6</v>
       </c>
       <c r="B138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7502572</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>7</v>
       </c>
       <c r="B139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7475997</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <f t="shared" si="5"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>8</v>
       </c>
       <c r="B140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7391184</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <f t="shared" si="5"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>10</v>
       </c>
       <c r="B141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7503551</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <f t="shared" si="5"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>9</v>
       </c>
       <c r="B142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5338678</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>13</v>
       </c>
       <c r="B143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7502600</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>11</v>
       </c>
       <c r="B144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7490930</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>14</v>
       </c>
       <c r="B145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7503410</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <f t="shared" si="5"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>15</v>
       </c>
       <c r="B146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7503289</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>16</v>
       </c>
       <c r="B147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7502877</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <f t="shared" si="5"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>17</v>
       </c>
       <c r="B148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7502976</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <f t="shared" si="5"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>18</v>
       </c>
       <c r="B149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7503418</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <f t="shared" si="5"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>19</v>
       </c>
       <c r="B150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7503507</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <f t="shared" si="5"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>20</v>
       </c>
       <c r="B151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7503486</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <f t="shared" si="5"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>21</v>
       </c>
       <c r="B152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7503471</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>12</v>
       </c>
       <c r="B153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3455300</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <f t="shared" si="5"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>22</v>
       </c>
       <c r="B154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7493009</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <f t="shared" si="5"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>23</v>
       </c>
       <c r="B155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7501143</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <f t="shared" si="5"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>24</v>
       </c>
       <c r="B156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15382</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <f t="shared" si="5"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>26</v>
       </c>
       <c r="B157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7369736</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <f t="shared" si="5"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>25</v>
       </c>
       <c r="B158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7251956</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>29</v>
       </c>
       <c r="B159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7502360</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <f t="shared" si="5"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>30</v>
       </c>
       <c r="B160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7502673</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <f t="shared" si="5"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>27</v>
       </c>
       <c r="B161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4969123</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <f t="shared" si="5"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>31</v>
       </c>
       <c r="B162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7502900</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>32</v>
       </c>
       <c r="B163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7503444</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <f t="shared" si="5"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>33</v>
       </c>
       <c r="B164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7492887</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <f t="shared" si="5"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>34</v>
       </c>
       <c r="B165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2690</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <f t="shared" si="5"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>35</v>
       </c>
       <c r="B166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6928833</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <f t="shared" si="5"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>37</v>
       </c>
       <c r="B167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7500468</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <f t="shared" si="5"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>28</v>
       </c>
       <c r="B168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>363308</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <f t="shared" si="5"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>38</v>
       </c>
       <c r="B169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7502703</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <f t="shared" si="5"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>39</v>
       </c>
       <c r="B170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1426</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>36</v>
       </c>
       <c r="B171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>112690</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <f t="shared" si="5"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>41</v>
       </c>
       <c r="B172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7499210</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>40</v>
       </c>
       <c r="B173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18704</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <f t="shared" si="5"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>42</v>
       </c>
       <c r="B174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <f t="shared" si="5"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>42</v>
       </c>
       <c r="B175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <f t="shared" si="5"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>28.140407697000001</v>
       </c>
       <c r="B176" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <f t="shared" si="5"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>28.140539781000001</v>
       </c>
       <c r="B177" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <f t="shared" si="5"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>47</v>
       </c>
       <c r="B178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7503562</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <f t="shared" si="5"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>45</v>
       </c>
       <c r="B179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7503557</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <f t="shared" si="5"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>44</v>
       </c>
       <c r="B180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7503463</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <f t="shared" si="5"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>46</v>
       </c>
       <c r="B181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7503531</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <f t="shared" si="5"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>51</v>
       </c>
       <c r="B182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7399689</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>50</v>
       </c>
       <c r="B183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7466951</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <f t="shared" si="5"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>49</v>
       </c>
       <c r="B184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7154176</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C184">
+        <f t="shared" si="5"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>52</v>
       </c>
       <c r="B185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7503265</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <f t="shared" si="5"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>53</v>
       </c>
       <c r="B186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7477976</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <f t="shared" si="5"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>54</v>
       </c>
       <c r="B187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7502767</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <f t="shared" si="5"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>56</v>
       </c>
       <c r="B188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7484127</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <f t="shared" si="5"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>55</v>
       </c>
       <c r="B189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7502572</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <f t="shared" si="5"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>57</v>
       </c>
       <c r="B190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7496995</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <f t="shared" si="5"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>58</v>
       </c>
       <c r="B191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7453627</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <f t="shared" si="5"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>59</v>
       </c>
       <c r="B192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7391328</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192">
+        <f t="shared" si="5"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>48</v>
       </c>
       <c r="B193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3690498</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C193">
+        <f t="shared" si="5"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>61</v>
       </c>
       <c r="B194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7503556</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <f t="shared" si="5"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>60</v>
       </c>
       <c r="B195">
-        <f t="shared" ref="B195:B258" si="3">_xlfn.NUMBERVALUE(MID(A195,FIND("is",$A195)+3,FIND(".",A195)-FIND("is",$A195)-3))</f>
+        <f t="shared" ref="B195:B258" si="6">_xlfn.NUMBERVALUE(MID(A195,FIND("is",$A195)+3,FIND(".",A195)-FIND("is",$A195)-3))</f>
         <v>5503230</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C195">
+        <f t="shared" si="5"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>62</v>
       </c>
       <c r="B196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503560</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <f t="shared" ref="C196:C259" si="7">C195+1</f>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>63</v>
       </c>
       <c r="B197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503559</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C197">
+        <f t="shared" si="7"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>64</v>
       </c>
       <c r="B198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503560</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C198">
+        <f t="shared" si="7"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>68</v>
       </c>
       <c r="B199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7502754</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <f t="shared" si="7"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>67</v>
       </c>
       <c r="B200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7499367</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C200">
+        <f t="shared" si="7"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>69</v>
       </c>
       <c r="B201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503172</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C201">
+        <f t="shared" si="7"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>65</v>
       </c>
       <c r="B202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7498472</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C202">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>70</v>
       </c>
       <c r="B203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503427</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C203">
+        <f t="shared" si="7"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>71</v>
       </c>
       <c r="B204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503480</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C204">
+        <f t="shared" si="7"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>72</v>
       </c>
       <c r="B205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503463</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C205">
+        <f t="shared" si="7"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>73</v>
       </c>
       <c r="B206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503309</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C206">
+        <f t="shared" si="7"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>74</v>
       </c>
       <c r="B207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503072</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C207">
+        <f t="shared" si="7"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>75</v>
       </c>
       <c r="B208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503267</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C208">
+        <f t="shared" si="7"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>76</v>
       </c>
       <c r="B209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503244</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C209">
+        <f t="shared" si="7"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>77</v>
       </c>
       <c r="B210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503252</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C210">
+        <f t="shared" si="7"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>78</v>
       </c>
       <c r="B211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503430</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C211">
+        <f t="shared" si="7"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>79</v>
       </c>
       <c r="B212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503530</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C212">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>80</v>
       </c>
       <c r="B213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503521</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C213">
+        <f t="shared" si="7"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>81</v>
       </c>
       <c r="B214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503515</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C214">
+        <f t="shared" si="7"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>82</v>
       </c>
       <c r="B215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503532</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C215">
+        <f t="shared" si="7"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>83</v>
       </c>
       <c r="B216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503498</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C216">
+        <f t="shared" si="7"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>84</v>
       </c>
       <c r="B217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503506</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C217">
+        <f t="shared" si="7"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>85</v>
       </c>
       <c r="B218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503560</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C218">
+        <f t="shared" si="7"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1</v>
       </c>
       <c r="B219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503061</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C219">
+        <f t="shared" si="7"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>86</v>
       </c>
       <c r="B220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7496337</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C220">
+        <f t="shared" si="7"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>2</v>
       </c>
       <c r="B221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503531</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C221">
+        <f t="shared" si="7"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>5</v>
       </c>
       <c r="B222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7433609</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C222">
+        <f t="shared" si="7"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>6</v>
       </c>
       <c r="B223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7502572</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C223">
+        <f t="shared" si="7"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>7</v>
       </c>
       <c r="B224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7475997</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C224">
+        <f t="shared" si="7"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>8</v>
       </c>
       <c r="B225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7391184</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C225">
+        <f t="shared" si="7"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>9</v>
       </c>
       <c r="B226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5338678</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C226">
+        <f t="shared" si="7"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>4</v>
       </c>
       <c r="B227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4557854</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C227">
+        <f t="shared" si="7"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>10</v>
       </c>
       <c r="B228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503551</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C228">
+        <f t="shared" si="7"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>13</v>
       </c>
       <c r="B229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7502600</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C229">
+        <f t="shared" si="7"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>14</v>
       </c>
       <c r="B230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503410</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C230">
+        <f t="shared" si="7"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>3</v>
       </c>
       <c r="B231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>556641</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C231">
+        <f t="shared" si="7"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>15</v>
       </c>
       <c r="B232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503289</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C232">
+        <f t="shared" si="7"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>11</v>
       </c>
       <c r="B233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7490930</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C233">
+        <f t="shared" si="7"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>16</v>
       </c>
       <c r="B234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7502877</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C234">
+        <f t="shared" si="7"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>17</v>
       </c>
       <c r="B235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7502976</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C235">
+        <f t="shared" si="7"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>18</v>
       </c>
       <c r="B236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503418</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C236">
+        <f t="shared" si="7"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>19</v>
       </c>
       <c r="B237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503507</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C237">
+        <f t="shared" si="7"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>20</v>
       </c>
       <c r="B238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503486</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C238">
+        <f t="shared" si="7"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>21</v>
       </c>
       <c r="B239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503471</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C239">
+        <f t="shared" si="7"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>66</v>
       </c>
       <c r="B240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4235134</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C240">
+        <f t="shared" si="7"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>26</v>
       </c>
       <c r="B241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7369736</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C241">
+        <f t="shared" si="7"/>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>23</v>
       </c>
       <c r="B242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7501143</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C242">
+        <f t="shared" si="7"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>22</v>
       </c>
       <c r="B243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7493009</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C243">
+        <f t="shared" si="7"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>29</v>
       </c>
       <c r="B244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7502360</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C244">
+        <f t="shared" si="7"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>24</v>
       </c>
       <c r="B245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>15382</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C245">
+        <f t="shared" si="7"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>27</v>
       </c>
       <c r="B246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4969123</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C246">
+        <f t="shared" si="7"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>25</v>
       </c>
       <c r="B247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7251956</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C247">
+        <f t="shared" si="7"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>30</v>
       </c>
       <c r="B248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7502673</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C248">
+        <f t="shared" si="7"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>31</v>
       </c>
       <c r="B249">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7502900</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C249">
+        <f t="shared" si="7"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>32</v>
       </c>
       <c r="B250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7503444</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C250">
+        <f t="shared" si="7"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>34</v>
       </c>
       <c r="B251">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2690</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C251">
+        <f t="shared" si="7"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>33</v>
       </c>
       <c r="B252">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7492887</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C252">
+        <f t="shared" si="7"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>38</v>
       </c>
       <c r="B253">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7502703</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C253">
+        <f t="shared" si="7"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>37</v>
       </c>
       <c r="B254">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7500468</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C254">
+        <f t="shared" si="7"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>35</v>
       </c>
       <c r="B255">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6928833</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C255">
+        <f t="shared" si="7"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>41</v>
       </c>
       <c r="B256">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7499210</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C256">
+        <f t="shared" si="7"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>39</v>
       </c>
       <c r="B257">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1426</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C257">
+        <f t="shared" si="7"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>12</v>
       </c>
       <c r="B258">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3455300</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C258">
+        <f t="shared" si="7"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>28</v>
       </c>
       <c r="B259">
-        <f t="shared" ref="B259:B322" si="4">_xlfn.NUMBERVALUE(MID(A259,FIND("is",$A259)+3,FIND(".",A259)-FIND("is",$A259)-3))</f>
+        <f t="shared" ref="B259:B322" si="8">_xlfn.NUMBERVALUE(MID(A259,FIND("is",$A259)+3,FIND(".",A259)-FIND("is",$A259)-3))</f>
         <v>363308</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C259">
+        <f t="shared" si="7"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>36</v>
       </c>
       <c r="B260">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>112690</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C260">
+        <f t="shared" ref="C260:C312" si="9">C259+1</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>40</v>
       </c>
       <c r="B261">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>18704</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C261">
+        <f t="shared" si="9"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>42</v>
       </c>
       <c r="B262">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C262">
+        <f t="shared" si="9"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>42</v>
       </c>
       <c r="B263">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C263">
+        <f t="shared" si="9"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>20.298617813</v>
       </c>
       <c r="B264" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C264">
+        <f t="shared" si="9"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>20.298804529000002</v>
       </c>
       <c r="B265" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C265">
+        <f t="shared" si="9"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>47</v>
       </c>
       <c r="B266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503562</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C266">
+        <f t="shared" si="9"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>45</v>
       </c>
       <c r="B267">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503557</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C267">
+        <f t="shared" si="9"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>44</v>
       </c>
       <c r="B268">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503463</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C268">
+        <f t="shared" si="9"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>46</v>
       </c>
       <c r="B269">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503531</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C269">
+        <f t="shared" si="9"/>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>53</v>
       </c>
       <c r="B270">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7477976</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C270">
+        <f t="shared" si="9"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>52</v>
       </c>
       <c r="B271">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503265</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C271">
+        <f t="shared" si="9"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>54</v>
       </c>
       <c r="B272">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7502767</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C272">
+        <f t="shared" si="9"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>51</v>
       </c>
       <c r="B273">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7399689</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C273">
+        <f t="shared" si="9"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>55</v>
       </c>
       <c r="B274">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7502572</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C274">
+        <f t="shared" si="9"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>56</v>
       </c>
       <c r="B275">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7484127</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C275">
+        <f t="shared" si="9"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>57</v>
       </c>
       <c r="B276">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7496995</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C276">
+        <f t="shared" si="9"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>58</v>
       </c>
       <c r="B277">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7453627</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C277">
+        <f t="shared" si="9"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>61</v>
       </c>
       <c r="B278">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503556</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C278">
+        <f t="shared" si="9"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>62</v>
       </c>
       <c r="B279">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503560</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C279">
+        <f t="shared" si="9"/>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>50</v>
       </c>
       <c r="B280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7466951</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C280">
+        <f t="shared" si="9"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>49</v>
       </c>
       <c r="B281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7154176</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C281">
+        <f t="shared" si="9"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>59</v>
       </c>
       <c r="B282">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7391328</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C282">
+        <f t="shared" si="9"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>63</v>
       </c>
       <c r="B283">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503559</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C283">
+        <f t="shared" si="9"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>60</v>
       </c>
       <c r="B284">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5503230</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C284">
+        <f t="shared" si="9"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>64</v>
       </c>
       <c r="B285">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503560</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C285">
+        <f t="shared" si="9"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>68</v>
       </c>
       <c r="B286">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7502754</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C286">
+        <f t="shared" si="9"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>69</v>
       </c>
       <c r="B287">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503172</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C287">
+        <f t="shared" si="9"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>70</v>
       </c>
       <c r="B288">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503427</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C288">
+        <f t="shared" si="9"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>71</v>
       </c>
       <c r="B289">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503480</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C289">
+        <f t="shared" si="9"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>72</v>
       </c>
       <c r="B290">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503463</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C290">
+        <f t="shared" si="9"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>73</v>
       </c>
       <c r="B291">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503309</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C291">
+        <f t="shared" si="9"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>67</v>
       </c>
       <c r="B292">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7499367</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C292">
+        <f t="shared" si="9"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>75</v>
       </c>
       <c r="B293">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503267</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C293">
+        <f t="shared" si="9"/>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>74</v>
       </c>
       <c r="B294">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503072</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C294">
+        <f t="shared" si="9"/>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>78</v>
       </c>
       <c r="B295">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503430</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C295">
+        <f t="shared" si="9"/>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>76</v>
       </c>
       <c r="B296">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503244</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C296">
+        <f t="shared" si="9"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>48</v>
       </c>
       <c r="B297">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3690498</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C297">
+        <f t="shared" si="9"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>77</v>
       </c>
       <c r="B298">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503252</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C298">
+        <f t="shared" si="9"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>65</v>
       </c>
       <c r="B299">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7498472</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C299">
+        <f t="shared" si="9"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>79</v>
       </c>
       <c r="B300">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503530</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C300">
+        <f t="shared" si="9"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>80</v>
       </c>
       <c r="B301">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503521</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C301">
+        <f t="shared" si="9"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>81</v>
       </c>
       <c r="B302">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503515</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C302">
+        <f t="shared" si="9"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>82</v>
       </c>
       <c r="B303">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503532</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C303">
+        <f t="shared" si="9"/>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>83</v>
       </c>
       <c r="B304">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503498</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C304">
+        <f t="shared" si="9"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>84</v>
       </c>
       <c r="B305">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503506</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C305">
+        <f t="shared" si="9"/>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>85</v>
       </c>
       <c r="B306">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503560</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C306">
+        <f t="shared" si="9"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1</v>
       </c>
       <c r="B307">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503061</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C307">
+        <f t="shared" si="9"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>86</v>
       </c>
       <c r="B308">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7496337</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C308">
+        <f t="shared" si="9"/>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>2</v>
       </c>
       <c r="B309">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503531</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C309">
+        <f t="shared" si="9"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>6</v>
       </c>
       <c r="B310">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7502572</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C310">
+        <f t="shared" si="9"/>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>7</v>
       </c>
       <c r="B311">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7475997</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C311">
+        <f t="shared" si="9"/>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>5</v>
       </c>
       <c r="B312">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7433609</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C312">
+        <f t="shared" si="9"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>8</v>
       </c>
       <c r="B313">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7391184</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>10</v>
       </c>
       <c r="B314">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503551</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>14</v>
       </c>
       <c r="B315">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503410</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>13</v>
       </c>
       <c r="B316">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7502600</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>15</v>
       </c>
       <c r="B317">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503289</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>16</v>
       </c>
       <c r="B318">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7502877</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>17</v>
       </c>
       <c r="B319">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7502976</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>18</v>
       </c>
       <c r="B320">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503418</v>
       </c>
     </row>
@@ -7927,7 +10244,7 @@
         <v>19</v>
       </c>
       <c r="B321">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7503507</v>
       </c>
     </row>
@@ -7936,7 +10253,7 @@
         <v>9</v>
       </c>
       <c r="B322">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5338678</v>
       </c>
     </row>
@@ -7945,7 +10262,7 @@
         <v>20</v>
       </c>
       <c r="B323">
-        <f t="shared" ref="B323:B351" si="5">_xlfn.NUMBERVALUE(MID(A323,FIND("is",$A323)+3,FIND(".",A323)-FIND("is",$A323)-3))</f>
+        <f t="shared" ref="B323:B351" si="10">_xlfn.NUMBERVALUE(MID(A323,FIND("is",$A323)+3,FIND(".",A323)-FIND("is",$A323)-3))</f>
         <v>7503486</v>
       </c>
     </row>
@@ -7954,7 +10271,7 @@
         <v>21</v>
       </c>
       <c r="B324">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7503471</v>
       </c>
     </row>
@@ -7963,7 +10280,7 @@
         <v>11</v>
       </c>
       <c r="B325">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7490930</v>
       </c>
     </row>
@@ -7972,7 +10289,7 @@
         <v>23</v>
       </c>
       <c r="B326">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7501143</v>
       </c>
     </row>
@@ -7981,7 +10298,7 @@
         <v>26</v>
       </c>
       <c r="B327">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7369736</v>
       </c>
     </row>
@@ -7990,7 +10307,7 @@
         <v>29</v>
       </c>
       <c r="B328">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7502360</v>
       </c>
     </row>
@@ -7999,7 +10316,7 @@
         <v>22</v>
       </c>
       <c r="B329">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7493009</v>
       </c>
     </row>
@@ -8008,7 +10325,7 @@
         <v>4</v>
       </c>
       <c r="B330">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4557854</v>
       </c>
     </row>
@@ -8017,7 +10334,7 @@
         <v>32</v>
       </c>
       <c r="B331">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7503444</v>
       </c>
     </row>
@@ -8026,7 +10343,7 @@
         <v>31</v>
       </c>
       <c r="B332">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7502900</v>
       </c>
     </row>
@@ -8035,7 +10352,7 @@
         <v>30</v>
       </c>
       <c r="B333">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7502673</v>
       </c>
     </row>
@@ -8044,7 +10361,7 @@
         <v>38</v>
       </c>
       <c r="B334">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7502703</v>
       </c>
     </row>
@@ -8053,7 +10370,7 @@
         <v>25</v>
       </c>
       <c r="B335">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7251956</v>
       </c>
     </row>
@@ -8062,7 +10379,7 @@
         <v>27</v>
       </c>
       <c r="B336">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4969123</v>
       </c>
     </row>
@@ -8071,7 +10388,7 @@
         <v>37</v>
       </c>
       <c r="B337">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7500468</v>
       </c>
     </row>
@@ -8080,7 +10397,7 @@
         <v>33</v>
       </c>
       <c r="B338">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7492887</v>
       </c>
     </row>
@@ -8089,7 +10406,7 @@
         <v>3</v>
       </c>
       <c r="B339">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>556641</v>
       </c>
     </row>
@@ -8098,7 +10415,7 @@
         <v>41</v>
       </c>
       <c r="B340">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7499210</v>
       </c>
     </row>
@@ -8107,7 +10424,7 @@
         <v>35</v>
       </c>
       <c r="B341">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6928833</v>
       </c>
     </row>
@@ -8116,7 +10433,7 @@
         <v>24</v>
       </c>
       <c r="B342">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>15382</v>
       </c>
     </row>
@@ -8125,7 +10442,7 @@
         <v>34</v>
       </c>
       <c r="B343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2690</v>
       </c>
     </row>
@@ -8134,7 +10451,7 @@
         <v>39</v>
       </c>
       <c r="B344">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1426</v>
       </c>
     </row>
@@ -8143,7 +10460,7 @@
         <v>66</v>
       </c>
       <c r="B345">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4235134</v>
       </c>
     </row>
@@ -8152,7 +10469,7 @@
         <v>12</v>
       </c>
       <c r="B346">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3455300</v>
       </c>
     </row>
@@ -8161,7 +10478,7 @@
         <v>28</v>
       </c>
       <c r="B347">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>363308</v>
       </c>
     </row>
@@ -8170,7 +10487,7 @@
         <v>36</v>
       </c>
       <c r="B348">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>112690</v>
       </c>
     </row>
@@ -8179,7 +10496,7 @@
         <v>40</v>
       </c>
       <c r="B349">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>18704</v>
       </c>
     </row>
@@ -8188,7 +10505,7 @@
         <v>42</v>
       </c>
       <c r="B350">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
     </row>
@@ -8197,7 +10514,7 @@
         <v>42</v>
       </c>
       <c r="B351">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
     </row>
